--- a/测试.xlsx
+++ b/测试.xlsx
@@ -3,24 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3426ACD8-904D-455C-89C4-C6C3329D410B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF98C5C-418D-406F-AF02-E9882A38B09D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONNECT" sheetId="1" r:id="rId1"/>
     <sheet name="PUBLISH" sheetId="4" r:id="rId2"/>
-    <sheet name="SUBSCRIBE" sheetId="5" r:id="rId3"/>
-    <sheet name="UNSUBSCRIBE" sheetId="6" r:id="rId4"/>
-    <sheet name="PINGREQ" sheetId="7" r:id="rId5"/>
-    <sheet name="DISCONNECT" sheetId="8" r:id="rId6"/>
+    <sheet name="PUBREL" sheetId="9" r:id="rId3"/>
+    <sheet name="SUBSCRIBE" sheetId="5" r:id="rId4"/>
+    <sheet name="UNSUBSCRIBE" sheetId="6" r:id="rId5"/>
+    <sheet name="PINGREQ" sheetId="7" r:id="rId6"/>
+    <sheet name="DISCONNECT" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="98">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +116,300 @@
   </si>
   <si>
     <t>只建立TCP未发送Connect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须丢弃任何与当前连接关联的未发布的遗嘱消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该关闭网络连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端必须发送 PINGRESP报文响应客户端的PINGREQ报文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端收到客户端发送的一个SUBSCRIBE报文时，必须使用SUBACK报文响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报文响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢弃遗嘱消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭网络连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许服务端在发送SUBACK报文之前就开始发送与订阅匹配的PUBLISH报文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果服务端收到一个SUBSCRIBE报文，报文的主题过滤器与一个现存订阅的主题过滤器相同，那么必须使用新的订阅彻底替换现存的订阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新订阅的主题过滤器和之前订阅的相同，但是它的最大QoS值可以不同。与这个主题过滤器匹配的任何现存的保留消息必须被重发，但是发布流程不能中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果主题过滤器不同于任何现存订阅的过滤器，服务端会创建一个新的订阅并发送所有匹配的保留消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果服务端收到包含多个主题过滤器的SUBSCRIBE报文，它必须如同收到了一系列的多个SUBSCRIBE报文一样处理那个，除了需要将它们的响应合并到一个单独的SUBACK报文发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">服务端发送给客户端的SUBACK报文对每一对主题过滤器 和QoS等级都必须包含一个返回码。这个返回码必须表示那个订阅被授予的最大QoS等级，或者表示这个订阅失败 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端可以授予比订阅者要求的低一些的QoS等级。为响应订阅而发出的消息的有效载荷的QoS必须是原始发布消息的QoS和服务端授予的QoS两者中的最小值。如果原始消息的QoS是1而被授予的最大QoS是0，允许服务端重复发送一个消息的副本给订阅者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBSCRIBE报文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送订阅报文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题过滤器保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同名替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新过滤器创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除订阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须停止分发任何新消息给这个客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须完成分发任何已经开始往客户端发送的QoS 1和QoS 2的消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以继续发送任何现存的准备分发给客户端的缓存消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须发送UNSUBACK报文响应客户端的UNSUBSCRIBE请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNSUBACK报文必须包含和UNSUBSCRIBE报文相同的报文标识符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即使没有删除任何主题订阅，服务端也必须发送一个UNSUBACK响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果服务端收到包含多个主题过滤器的UNSUBSCRIBE报文，它必须如同收到了一系列的多个UNSUBSCRIBE报文一样处理那个报文，除了将它们的响应合并到一个单独的UNSUBACK报文外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QoS0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QoS1</t>
+  </si>
+  <si>
+    <t>QoS2</t>
+  </si>
+  <si>
+    <t>订阅分发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息分发重试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须默认认为每个主题都是有序的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端处理发送给有序主题的消息时，必须按照上面的规则将消息分发给每个订阅者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBACK报文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBREC报文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多分发一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少分发一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅分发一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端设置清理会话（CleanSession）标志为0重连时，客户端和服务端必须使用原始的报文标识符重发任何未确认的PUBLISH报文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBCOMP报文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONNACK报文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除相关消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭之前连接，如果cleanSession为1则清除之前会话信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存遗嘱消息到Session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端启动时默认心跳时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送CONNACK报文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果cleanSession为0, 需要重发同一clientId存储的未完成的QoS1和QoS2的DUP消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送CONNACK报文，关闭连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空ID返回无标识错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存已删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端每隔心跳时间打印日志，客户端保持连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mqtt客户端测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mqtt客户端发消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到PUBCOMP报文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止发消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送未完成消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送缓存消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送响应报文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python代码测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新订阅替换成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留消息发送成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +417,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,14 +428,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -183,23 +470,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,151 +833,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="62.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="C14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="3" t="s">
-        <v>23</v>
+      <c r="C16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D2:D5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -694,75 +1093,589 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3885D7E0-297A-4515-AD29-39C0076592E4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF0DF29-7BC7-4131-BFE3-4DD741596269}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA132ED-82C8-4E87-8EF9-5F96F6DA479C}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CBF890-67FC-43DB-8C68-6C6B74A4D251}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF0DF29-7BC7-4131-BFE3-4DD741596269}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="173.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C5" s="5"/>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C8" s="5"/>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C2:C9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8771C3C4-3BD6-43F5-BDAA-82BA7736F4D4}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CBF890-67FC-43DB-8C68-6C6B74A4D251}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="132" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C6" s="5"/>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C7" s="5"/>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C8" s="5"/>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C2:C8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58B880F-3BBC-4DD2-8025-B87FEE452090}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8771C3C4-3BD6-43F5-BDAA-82BA7736F4D4}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58B880F-3BBC-4DD2-8025-B87FEE452090}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>